--- a/заказы/статистика филиалы/2023/11,23/23,11,23 ЗПФ/дв 23,11,23 бррсч зпф.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/23,11,23 ЗПФ/дв 23,11,23 бррсч зпф.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\23,11,23 ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\23,11,23 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9002BD04-2B7B-49E6-94AA-EF0AC2EE1C1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6F5615-731D-436B-B01F-669F8AB30ADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="600" windowWidth="28680" windowHeight="15600" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -266,10 +266,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -3906,8 +3910,8 @@
   <dimension ref="A1:Z47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC40" sqref="AC40"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
